--- a/クリックポスト発送情報/20200802235120/英子日本发货表格8.2.xlsx
+++ b/クリックポスト発送情報/20200802235120/英子日本发货表格8.2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="121">
   <si>
     <t>序号</t>
   </si>
@@ -374,6 +374,78 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628548391240</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>628548391236</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>628548391225</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628548391214</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>628548391203</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>628548391192</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>628548391181</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>628548391170</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>628548391166</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>628548391155</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>628548391144</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628548391133</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>628548391122</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>628548391111</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>628548391100</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>628548391096</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>628548391085</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 628548391074</t>
     <phoneticPr fontId="17"/>
   </si>
 </sst>
@@ -382,7 +454,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -535,7 +607,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -632,12 +704,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -650,7 +725,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2186,7 +2261,9 @@
       <c r="I2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="38"/>
+      <c r="K2" s="39" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
       <c r="A3" s="12" t="s">
@@ -2211,7 +2288,9 @@
       <c r="I3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="38"/>
+      <c r="K3" s="39" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="4" spans="1:181" ht="121.95" customHeight="1">
       <c r="A4" s="15" t="s">
@@ -2236,7 +2315,9 @@
       <c r="I4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="38"/>
+      <c r="K4" s="39" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="5" spans="1:181" ht="121.95" customHeight="1">
       <c r="A5" s="19" t="s">
@@ -2261,7 +2342,9 @@
       <c r="I5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="38"/>
+      <c r="K5" s="39" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="6" spans="1:181" ht="121.95" customHeight="1">
       <c r="A6" s="22" t="s">
@@ -2286,10 +2369,12 @@
       <c r="I6" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="38"/>
+      <c r="K6" s="39" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="26"/>
@@ -2299,22 +2384,24 @@
       <c r="D7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="38"/>
+      <c r="K7" s="39" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="8" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="26"/>
       <c r="C8" s="27" t="s">
         <v>48</v>
@@ -2322,14 +2409,16 @@
       <c r="D8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="K8" s="38"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="K8" s="39" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="9" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="26"/>
@@ -2339,22 +2428,24 @@
       <c r="D9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="38"/>
+      <c r="K9" s="39" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="10" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="26"/>
       <c r="C10" s="27" t="s">
         <v>55</v>
@@ -2362,14 +2453,16 @@
       <c r="D10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="K10" s="38"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="K10" s="39" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="11" spans="1:181" ht="121.95" customHeight="1">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="26"/>
       <c r="C11" s="27" t="s">
         <v>56</v>
@@ -2377,11 +2470,13 @@
       <c r="D11" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="K11" s="38"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="K11" s="39" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="12" spans="1:181" ht="121.95" customHeight="1">
       <c r="A12" s="27" t="s">
@@ -2406,7 +2501,9 @@
       <c r="I12" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="38"/>
+      <c r="K12" s="39" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="13" spans="1:181" ht="121.95" customHeight="1">
       <c r="A13" s="27" t="s">
@@ -2431,7 +2528,9 @@
       <c r="I13" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="38"/>
+      <c r="K13" s="39" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="14" spans="1:181" ht="121.95" customHeight="1">
       <c r="A14" s="27" t="s">
@@ -2456,7 +2555,9 @@
       <c r="I14" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="38"/>
+      <c r="K14" s="39" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="15" spans="1:181" ht="121.95" customHeight="1">
       <c r="A15" s="27" t="s">
@@ -2481,7 +2582,9 @@
       <c r="I15" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="K15" s="38"/>
+      <c r="K15" s="39" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="16" spans="1:181" ht="121.95" customHeight="1">
       <c r="A16" s="27" t="s">
@@ -2506,10 +2609,12 @@
       <c r="I16" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="K16" s="38"/>
+      <c r="K16" s="39" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="121.95" customHeight="1">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="37" t="s">
         <v>84</v>
       </c>
       <c r="B17" s="13"/>
@@ -2519,22 +2624,24 @@
       <c r="D17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="38"/>
+      <c r="K17" s="39" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="121.95" customHeight="1">
-      <c r="A18" s="37"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="28"/>
       <c r="C18" s="12" t="s">
         <v>89</v>
@@ -2542,11 +2649,13 @@
       <c r="D18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="K18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="K18" s="39" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="121.95" customHeight="1">
       <c r="A19" s="12" t="s">
@@ -2571,7 +2680,7 @@
       <c r="I19" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="K19" s="38"/>
+      <c r="K19" s="34"/>
     </row>
     <row r="20" spans="1:11" ht="121.95" customHeight="1">
       <c r="A20" s="12" t="s">
@@ -2596,7 +2705,9 @@
       <c r="I20" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K20" s="38"/>
+      <c r="K20" s="39" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="121.95" customHeight="1"/>
     <row r="22" spans="1:11" ht="121.95" customHeight="1"/>
@@ -2837,6 +2948,12 @@
     <row r="257" ht="121.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="I17:I18"/>
@@ -2846,12 +2963,6 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F17:F18"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.70902777777777803" right="0.70902777777777803" top="0.95902777777777803" bottom="0.95902777777777803" header="0.468055555555556" footer="0.468055555555556"/>
